--- a/docs/Output/Excel/features.xlsx
+++ b/docs/Output/Excel/features.xlsx
@@ -5020,7 +5020,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="F45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="G45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5032,7 +5032,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="J45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="K45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5044,7 +5044,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="N45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="O45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5056,7 +5056,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="R45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="S45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5068,7 +5068,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="V45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="W45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5080,7 +5080,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="Z45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="AA45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5092,7 +5092,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="AD45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="AE45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5104,7 +5104,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="AH45" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
       <x:c r="AI45" s="6" t="n">
         <x:v>1000</x:v>
@@ -5223,7 +5223,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E16" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -5255,7 +5255,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E20" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -5305,7 +5305,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E27" s="7">
-        <x:v>27282</x:v>
+        <x:v>27311</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -5393,7 +5393,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F38" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -5445,7 +5445,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F43" s="7">
-        <x:v>26552</x:v>
+        <x:v>26581</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
